--- a/data/case1/5/V2_14.xlsx
+++ b/data/case1/5/V2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999425323183</v>
+        <v>0.999999989655598</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9972896777410184</v>
+        <v>0.99892520668824358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99452773988228094</v>
+        <v>0.99674162412253542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99837796935078948</v>
+        <v>1.0010881859886929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98911832499864449</v>
+        <v>0.99234279148402416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96670253351561763</v>
+        <v>0.97135695810157818</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96438015115751874</v>
+        <v>0.9717485591397319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96168822486514749</v>
+        <v>0.97157420120646876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.96102329568138334</v>
+        <v>0.97603118605721129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95019810976363672</v>
+        <v>0.98149058445353099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94860231531014305</v>
+        <v>0.98101073881267609</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94582304741582157</v>
+        <v>0.98035349868552291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93453781496092114</v>
+        <v>0.97849207107261338</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93037084078200505</v>
+        <v>0.97826723925866377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92777953330143936</v>
+        <v>0.97954671633662005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92527316295631223</v>
+        <v>0.98172601132029746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92156534590922368</v>
+        <v>0.98742373829052299</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92045643408354194</v>
+        <v>0.98631487565192033</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99275418666334059</v>
+        <v>0.9978720682766733</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97932696178121137</v>
+        <v>0.99075529555898845</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.97792845757857572</v>
+        <v>0.98935684729057538</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.97666394607749152</v>
+        <v>0.98809235167995446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9874936229929655</v>
+        <v>0.98969681736528847</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97447343932724317</v>
+        <v>0.98185629644646166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96801655638000539</v>
+        <v>0.97539952826501919</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96363651964834163</v>
+        <v>0.96770484552984948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.95961077961352115</v>
+        <v>0.96286249921306832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94213117709855176</v>
+        <v>0.9414034647519034</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.92981176939289045</v>
+        <v>0.926137340899998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.92463525270637315</v>
+        <v>0.91956808960322434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92076656780195365</v>
+        <v>0.911915318630517</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.919087279296389</v>
+        <v>0.91023608193077932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91856727379970438</v>
+        <v>0.90971609097706096</v>
       </c>
     </row>
   </sheetData>
